--- a/medicine/Mort/Cimetière_de_Bry-sur-Marne/Cimetière_de_Bry-sur-Marne.xlsx
+++ b/medicine/Mort/Cimetière_de_Bry-sur-Marne/Cimetière_de_Bry-sur-Marne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Bry-sur-Marne</t>
+          <t>Cimetière_de_Bry-sur-Marne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière de Bry-sur-Marne est le cimetière communal de la ville de Bry-sur-Marne dans le Val-de-Marne[1]. Il est fameux pour abriter la sépulture de Louis Daguerre[2],[3]. Il a conservé une partie ancienne et comprend quelques œuvres d'art dont la plus notable est le monument de l'industriel Joseph-Frédéric Favier (1814-1886) et de son épouse italienne née Elisa Tozzi dont la propriété de Bry devint une maison de retraite[4]. Il est dominé par une statue (1887), œuvre du sculpteur italien Enrico Chiaradia. Le cimetière possède un carré militaire avec un monument aux morts[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière de Bry-sur-Marne est le cimetière communal de la ville de Bry-sur-Marne dans le Val-de-Marne. Il est fameux pour abriter la sépulture de Louis Daguerre,. Il a conservé une partie ancienne et comprend quelques œuvres d'art dont la plus notable est le monument de l'industriel Joseph-Frédéric Favier (1814-1886) et de son épouse italienne née Elisa Tozzi dont la propriété de Bry devint une maison de retraite. Il est dominé par une statue (1887), œuvre du sculpteur italien Enrico Chiaradia. Le cimetière possède un carré militaire avec un monument aux morts.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Bry-sur-Marne</t>
+          <t>Cimetière_de_Bry-sur-Marne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Jeanne Astre (1901-1993), peintre
 Louis Daguerre (1787-1851), inventeur du daguerréotype
